--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -1,23 +1,1514 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="108" windowWidth="15120" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="210">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Название (Title):</t>
+  </si>
+  <si>
+    <t>Описание( Summary):</t>
+  </si>
+  <si>
+    <t>Приоритет (Priority)</t>
+  </si>
+  <si>
+    <t>Предусловия (Preconditions)</t>
+  </si>
+  <si>
+    <t>Шаги (Steps to reproduce):</t>
+  </si>
+  <si>
+    <t>Ожидаемый результат (Expected result):</t>
+  </si>
+  <si>
+    <t>Высокий</t>
+  </si>
+  <si>
+    <t>Открыто приложение "Мобильный хоспис". Пользователь зарегистрирован</t>
+  </si>
+  <si>
+    <t>Авторизация с валидным логином и паролем зарегистрированного пользователя</t>
+  </si>
+  <si>
+    <t>Открыто приложение "Мобильный хоспис". Пользователь не зарегистрирован</t>
+  </si>
+  <si>
+    <t>Появляется ошибка: "Что-то пошло не так. Повторите попытку"</t>
+  </si>
+  <si>
+    <t>Данные для входа:
+login2; password2</t>
+  </si>
+  <si>
+    <t>Авторизация с пустыми полями</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. Нажать кнопку </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Авторизоваться</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Поля </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Логин</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> и </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Пароль</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> не заполнены</t>
+    </r>
+  </si>
+  <si>
+    <t>Отобразилось уведомление: «Логин и пароль не могут быть пустыми»</t>
+  </si>
+  <si>
+    <t>Выход из учетной записи</t>
+  </si>
+  <si>
+    <t>Открыто приложение "Мобильный хоспис". Пользователь зарегистрирован и авторизован</t>
+  </si>
+  <si>
+    <t>Открылась форма авторизации</t>
+  </si>
+  <si>
+    <t>1. Нажать кнопку "Человечек" в верхнем меню (header).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. Нажать кнопку </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Log Out</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Откроется меню </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Log Out</t>
+    </r>
+  </si>
+  <si>
+    <t>Вызов меню в верхей панели</t>
+  </si>
+  <si>
+    <t>1. Нажать кнопку "Бургер" в верхней панели</t>
+  </si>
+  <si>
+    <t>Открылось всплывающее меню навигации</t>
+  </si>
+  <si>
+    <t>Переход на страницу Тематические цитаты</t>
+  </si>
+  <si>
+    <t>1. Нажать кнопку "Бабочка" в верхней панели</t>
+  </si>
+  <si>
+    <t>Открылась страница Тематические цитаты</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Переход в раздел Новости с Главной страницы через кнопку </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>All News</t>
+    </r>
+  </si>
+  <si>
+    <t>Открыто приложение "Мобильный хоспис". Пользователь зарегистрирован и авторизован. Открыта страница Main</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Нажать на кнопку </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>All News</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> на основном экране</t>
+    </r>
+  </si>
+  <si>
+    <t>Открылась страница с новостями</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. Нажать кнопку </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>News</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> в меню </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. Нажать кнопку </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>About</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> в меню </t>
+    </r>
+  </si>
+  <si>
+    <t>1. Выбрать новость и нажать стрелку справа от ее заголовка</t>
+  </si>
+  <si>
+    <t>Новость разворачивается. Открывается описание новости</t>
+  </si>
+  <si>
+    <t>Просмотр контента Новости на Главной странице</t>
+  </si>
+  <si>
+    <t>Просмотр ссылки "Политика конфиденциальности" во вкладке "About"</t>
+  </si>
+  <si>
+    <t>Открылась страница О приложении</t>
+  </si>
+  <si>
+    <t>3. Нажать на ссылку "Политика конфиденциальности".</t>
+  </si>
+  <si>
+    <t>Отобразилась информация о конфиденциальности</t>
+  </si>
+  <si>
+    <t>Просмотр ссылки "Пользовательское соглашение" во вкладке "About"</t>
+  </si>
+  <si>
+    <t>3. Нажать на ссылку "Пользовательское соглашение".</t>
+  </si>
+  <si>
+    <t>Отобразилась информация о пользовательском соглашении</t>
+  </si>
+  <si>
+    <t>Переход со страницы News на страницу Main</t>
+  </si>
+  <si>
+    <t>Открыто приложение "Мобильный хоспис". Пользователь зарегистрирован и авторизован. Открыта страница News</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. Нажать кнопку </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Main</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> в меню </t>
+    </r>
+  </si>
+  <si>
+    <t>Переход со страницы News на страницу About</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. Нажать кнопку </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">About </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">в меню </t>
+    </r>
+  </si>
+  <si>
+    <t>Открылась главная страница</t>
+  </si>
+  <si>
+    <t>1. Нажать кнопку "Стрелочки" в панели новостей</t>
+  </si>
+  <si>
+    <t>Новости отсортировались по времени добавления</t>
+  </si>
+  <si>
+    <t>Сортировка новостей по заданному периоду на странице News</t>
+  </si>
+  <si>
+    <t>1. Нажать кнопку "Сортировка" в панели новостей</t>
+  </si>
+  <si>
+    <t>Новости отфильтровались по нужному периоду</t>
+  </si>
+  <si>
+    <t>Фильтрация новостей по категории "Объявление" на странице News</t>
+  </si>
+  <si>
+    <t>Категория выбирается</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Выбрать категорию "Объявление" </t>
+  </si>
+  <si>
+    <t>Новости отсортировались по выбранной категории</t>
+  </si>
+  <si>
+    <t>Фильтрация новостей по категории "День Рождения" на странице News</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Выбрать категорию "День Рождения" </t>
+  </si>
+  <si>
+    <t>Фильтрация новостей по категории "Зарплата" на странице News</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Выбрать категорию "Зарплата" </t>
+  </si>
+  <si>
+    <t>Фильтрация новостей по категории "Профсоюз" на странице News</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Выбрать категорию "Профсоюз" </t>
+  </si>
+  <si>
+    <t>Фильтрация новостей по категории "Праздник" на странице News</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Выбрать категорию "Праздник" </t>
+  </si>
+  <si>
+    <t>Фильтрация новостей по категории "Массаж" на странице News</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Выбрать категорию "Массаж" </t>
+  </si>
+  <si>
+    <t>Фильтрация новостей по категории "Благодарность" на странице News</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Выбрать категорию "Благодарность" </t>
+  </si>
+  <si>
+    <t>Фильтрация новостей по категории "Нужна помощь" на странице News</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Выбрать категорию "Нужна помощь" </t>
+  </si>
+  <si>
+    <t>Сброс фильтра на странице News</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Выбрать нужную категорию </t>
+  </si>
+  <si>
+    <t>Нужная новость не найдена</t>
+  </si>
+  <si>
+    <t>Фильтр сбрасывается</t>
+  </si>
+  <si>
+    <t>Сортировка новостей по времени добавления в Редакторе новостей на странице News</t>
+  </si>
+  <si>
+    <t>1. Нажать кнопку "Редактировать новость" в панели новостей</t>
+  </si>
+  <si>
+    <t>Открылся редактор новостей</t>
+  </si>
+  <si>
+    <t>Просмотр новости в Редакторе новостей на странице News</t>
+  </si>
+  <si>
+    <t>Новость открывается</t>
+  </si>
+  <si>
+    <t>2. В списке новостей выбрать нужную и нажать стрелочку справа от заголовка новости</t>
+  </si>
+  <si>
+    <t>Удаление новости в Редакторе новостей на странице News</t>
+  </si>
+  <si>
+    <t>Отображается надпись: "Вы уверены что хотите удалить новость?"</t>
+  </si>
+  <si>
+    <t>Редактирование новости в Редакторе новостей на странице News</t>
+  </si>
+  <si>
+    <t>Отображается панель редактирования новости</t>
+  </si>
+  <si>
+    <t>Отображается список новостей. Нужная новость удаляется</t>
+  </si>
+  <si>
+    <t>Отображается список новостей. Нужная новость обновляется</t>
+  </si>
+  <si>
+    <t>Смена статуса новости Active/Not Active в Редакторе новостей на странице News</t>
+  </si>
+  <si>
+    <t>Фильтрация новостей по параметру Active в Редакторе новостей на странице News</t>
+  </si>
+  <si>
+    <t>Фильтрация новостей по параметру Not Active в Редакторе новостей на странице News</t>
+  </si>
+  <si>
+    <t>Создание новости в Редакторе новостей на странице News</t>
+  </si>
+  <si>
+    <t>Открывается редактор новости</t>
+  </si>
+  <si>
+    <t>3. Заполнить поле категория</t>
+  </si>
+  <si>
+    <t>4. Заполнить заголовок</t>
+  </si>
+  <si>
+    <t>6. Заполнить время</t>
+  </si>
+  <si>
+    <t>Дата заполняется</t>
+  </si>
+  <si>
+    <t>Время заполняется</t>
+  </si>
+  <si>
+    <t>Создание новости с пустым полем "Категория" в Редакторе новостей на странице News</t>
+  </si>
+  <si>
+    <t>3. Оставить поле категория пустым</t>
+  </si>
+  <si>
+    <t>Отображается сообщение: "Заполните все обязательные поля"</t>
+  </si>
+  <si>
+    <t>Создание новости с пустым полем "Заголовок" в Редакторе новостей на странице News</t>
+  </si>
+  <si>
+    <t>4. Оставить поле "Заголовок" пустым</t>
+  </si>
+  <si>
+    <t>Заголовок пустой</t>
+  </si>
+  <si>
+    <t>Заголовок заполняется</t>
+  </si>
+  <si>
+    <t>Создание новости с пустым полем "Дата" в Редакторе новостей на странице News</t>
+  </si>
+  <si>
+    <t>5. Поле "Дата" оставить пустым</t>
+  </si>
+  <si>
+    <t>Дата не появляется</t>
+  </si>
+  <si>
+    <t>Создание новости с пустым полем "Время" в Редакторе новостей на странице News</t>
+  </si>
+  <si>
+    <t>6. Поле "Время" оставить пустым</t>
+  </si>
+  <si>
+    <t>Время не появляется</t>
+  </si>
+  <si>
+    <t>Создание новости с пустым полем "Описание" в Редакторе новостей на странице News</t>
+  </si>
+  <si>
+    <t>7. Поле Описание оставить пустым</t>
+  </si>
+  <si>
+    <t>Описание не заполняется</t>
+  </si>
+  <si>
+    <t>7. Заполнить поле "Описание"</t>
+  </si>
+  <si>
+    <t>Описание заполняется</t>
+  </si>
+  <si>
+    <t>Создание новости с пустыми полями в Редакторе новостей на странице News</t>
+  </si>
+  <si>
+    <t>3. Поле категория оставить пустым</t>
+  </si>
+  <si>
+    <t>Категория не заполняется</t>
+  </si>
+  <si>
+    <t>5. Оставить поле "Дата" пустым</t>
+  </si>
+  <si>
+    <t>Дата не заполняется</t>
+  </si>
+  <si>
+    <t>6. Оставить поле "Время" пустым</t>
+  </si>
+  <si>
+    <t>Время не заполняется</t>
+  </si>
+  <si>
+    <t>Заголовок не заполняется</t>
+  </si>
+  <si>
+    <t>Отображается список новостей. Новая новость появляется в списке.</t>
+  </si>
+  <si>
+    <t>Создание новости с произвольным полем "Категория" в Редакторе новостей на странице News</t>
+  </si>
+  <si>
+    <t>Категория заполняется</t>
+  </si>
+  <si>
+    <t>3. Заполнить поле "Категория" своими данными</t>
+  </si>
+  <si>
+    <t>Отображается список новостей. Новая новость появляется в списке с новой категорией</t>
+  </si>
+  <si>
+    <t>Создание новости со вчерашней датой в Редакторе новостей на странице News</t>
+  </si>
+  <si>
+    <t>3. Заполнить поле "Категория"</t>
+  </si>
+  <si>
+    <t>5. Выбрать дату вчера</t>
+  </si>
+  <si>
+    <t>5. Заполнить дату валидным значением</t>
+  </si>
+  <si>
+    <t>Создание новости с датой через год в Редакторе новостей на странице News</t>
+  </si>
+  <si>
+    <t>5. Заполнить дату со значением на год вперед</t>
+  </si>
+  <si>
+    <t>Создание новости с временем через час в Редакторе новостей на странице News</t>
+  </si>
+  <si>
+    <t>6. Заполнить время новости через час</t>
+  </si>
+  <si>
+    <t>5. Заполнить дату сегодняшним числом</t>
+  </si>
+  <si>
+    <t>Создание новости с временем час назад в Редакторе новостей на странице News</t>
+  </si>
+  <si>
+    <t>6. Заполнить время новости час назад</t>
+  </si>
+  <si>
+    <t>Время не заполняется, невозможно выбрать это время</t>
+  </si>
+  <si>
+    <t>Редактирование описания новости в Редакторе новостей на странице News</t>
+  </si>
+  <si>
+    <t>Описание изменяется</t>
+  </si>
+  <si>
+    <t>Редактор закрывается. Описание новости изменено.</t>
+  </si>
+  <si>
+    <t>Редактирование даты публикации новости в Редакторе новостей на странице News</t>
+  </si>
+  <si>
+    <t>Дата изменяется</t>
+  </si>
+  <si>
+    <t>3. Изменить описание новости</t>
+  </si>
+  <si>
+    <t>Открывается календарь</t>
+  </si>
+  <si>
+    <t>4. Выбрать завтрашний день</t>
+  </si>
+  <si>
+    <t>Редактор закрывается. Дата новости изменена.</t>
+  </si>
+  <si>
+    <t>Редактирование времени публикации новости в Редакторе новостей на странице News</t>
+  </si>
+  <si>
+    <t>Открывается редактор времени</t>
+  </si>
+  <si>
+    <t>4. Выбрать время на час больше</t>
+  </si>
+  <si>
+    <t>Время изменяется</t>
+  </si>
+  <si>
+    <t>Редактирование заголовка новости в Редакторе новостей на странице News</t>
+  </si>
+  <si>
+    <t>3. Изменить заголовок новости</t>
+  </si>
+  <si>
+    <t>Заголовок изменяется</t>
+  </si>
+  <si>
+    <t>Редактор закрывается. Заголовок новости изменен.</t>
+  </si>
+  <si>
+    <t>Редактирование категории новости в Редакторе новостей на странице News</t>
+  </si>
+  <si>
+    <t>3. Изменить категорию новости</t>
+  </si>
+  <si>
+    <t>Категория изменяется</t>
+  </si>
+  <si>
+    <t>Редактор закрывается. Категория новости изменена.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 В поле </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Логин</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> ввести валидный логин</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2 В поле </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Пароль</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> ввести валидный пароль</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3 Нажать кнопку </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Авторизоваться</t>
+    </r>
+  </si>
+  <si>
+    <t>Покрытие</t>
+  </si>
+  <si>
+    <t>Возможно</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">В поле </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Логин</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> отображается введенный логин</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">В поле </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Пароль</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> отображается пароль в виде звездочек</t>
+    </r>
+  </si>
+  <si>
+    <t>Открывается главная страница приложения</t>
+  </si>
+  <si>
+    <t>Авторизация с логином и паролем незарегистрированного пользователя</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 В поле </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Логин</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> ввести несуществующий логин: abcd</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2 В поле </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Пароль</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> ввести несуществующий пароль</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Поле </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Логин и Пароль</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> оставить пустым</t>
+    </r>
+  </si>
+  <si>
+    <t>Переход на страницу "About" через главное меню мобильного приложения</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Переход на страницу "News" через главное меню мобильного приложения</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Открылась страница с описанием </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>О приложении</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Открылась страница </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>О приложении</t>
+    </r>
+  </si>
+  <si>
+    <t>Сортировка новостей по новизне на странице News</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Открылось меню </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Фильтр</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. Задать нужный период и нажать кнопку </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Фильтр</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. Нажать кнопку </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Фильтр</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. Нажать кнопку </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Отмена</t>
+    </r>
+  </si>
+  <si>
+    <t>2. Нажать кнопку "Стрелочки в панели редактора"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. В списке новостей выбрать нужную и нажать кнопку </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Корзина</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. Нажать кнопку </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ОК</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. В списке новостей выбрать нужную и нажать кнопку </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Редактировать</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. Отредактировать нужные поля и нажать </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ОК</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. Перевести чекбокс в нужное </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Not Active</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> и нажать</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> ОК</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Отображается список новостей. Нужная новость обновляется на статус </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Not Active</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. Убрать чекбокс с параметра </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Not Active</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> и нажать </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ОК</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Отображается список новостей. Новости с параметром </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Not Active</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> не отображаются</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. Убрать чекбокс с параметра </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Active</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> и нажать </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ОК</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Отображается список новостей. Новости с параметром </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Active</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> не отображаются</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. В панели новостей нажать кнопку </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Плюс</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8. Нажать кнопку </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Save</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2. В панели новостей нажать кнопку</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Плюс</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>8. Нажать кнопку</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Save</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7. Поле </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Описание</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> оставить пустым</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Вчерашняя </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Дата</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> не активна</t>
+    </r>
+  </si>
+  <si>
+    <t>Отображается список новостей. Новая новость появляется в списке с новой датой</t>
+  </si>
+  <si>
+    <t>Отображается список новостей. Новая новость появляется в списке с новой временем публикации</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. Выбрать новость и нажать кнопку </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Редактировать</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. Нажать кнопку </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Сохранить</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2. Выбрать новость и нажать кнопку</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Редактировать</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. Нажать на кнопку </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Дата</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5. Нажать кнопку </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Сохранить</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. Нажать на кнопку </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Время</t>
+    </r>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-419]General"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -26,16 +1517,62 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -43,14 +1580,162 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Excel Built-in Normal" xfId="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -343,14 +2028,3578 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H196"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="F197" sqref="F197"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22" style="2" customWidth="1"/>
+    <col min="6" max="6" width="40.88671875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="41.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.88671875" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="34.799999999999997" customHeight="1">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="3" customFormat="1" ht="33.6" customHeight="1">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="3" customFormat="1" ht="28.2" customHeight="1">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H3" s="21"/>
+    </row>
+    <row r="4" spans="1:8" s="3" customFormat="1" ht="26.4" customHeight="1">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="H4" s="22"/>
+    </row>
+    <row r="5" spans="1:8" s="3" customFormat="1" ht="33" customHeight="1">
+      <c r="A5" s="23">
+        <v>2</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="3" customFormat="1" ht="36" customHeight="1">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="H6" s="25"/>
+    </row>
+    <row r="7" spans="1:8" s="3" customFormat="1" ht="31.2" customHeight="1">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="26"/>
+    </row>
+    <row r="8" spans="1:8" s="3" customFormat="1" ht="25.8" customHeight="1">
+      <c r="A8" s="11">
+        <v>3</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="3" customFormat="1" ht="37.200000000000003" customHeight="1">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="22"/>
+    </row>
+    <row r="10" spans="1:8" s="3" customFormat="1" ht="36" customHeight="1">
+      <c r="A10" s="23">
+        <v>4</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="3" customFormat="1" ht="36" customHeight="1">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="26"/>
+    </row>
+    <row r="12" spans="1:8" s="3" customFormat="1" ht="80.400000000000006" customHeight="1">
+      <c r="A12" s="8">
+        <v>5</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="3" customFormat="1" ht="72" customHeight="1">
+      <c r="A13" s="17">
+        <v>6</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="3" customFormat="1" ht="86.4" customHeight="1">
+      <c r="A14" s="8">
+        <v>7</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="3" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A15" s="23">
+        <v>8</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="3" customFormat="1" ht="63" customHeight="1">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="26"/>
+    </row>
+    <row r="17" spans="1:8" s="3" customFormat="1" ht="33.6" customHeight="1">
+      <c r="A17" s="11">
+        <v>9</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="3" customFormat="1" ht="47.4" customHeight="1">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H18" s="22"/>
+    </row>
+    <row r="19" spans="1:8" s="3" customFormat="1" ht="94.2" customHeight="1">
+      <c r="A19" s="17">
+        <v>10</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="3" customFormat="1" ht="27" customHeight="1">
+      <c r="A20" s="10">
+        <v>11</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="3" customFormat="1" ht="30.6" customHeight="1">
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="H21" s="21"/>
+    </row>
+    <row r="22" spans="1:8" s="3" customFormat="1" ht="26.4">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="22"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="32">
+        <v>12</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="32"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="H24" s="25"/>
+    </row>
+    <row r="25" spans="1:8" ht="58.8" customHeight="1">
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" s="26"/>
+    </row>
+    <row r="26" spans="1:8" ht="39" customHeight="1">
+      <c r="A26" s="10">
+        <v>13</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="29" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="49.8" customHeight="1">
+      <c r="A27" s="10"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H27" s="31"/>
+    </row>
+    <row r="28" spans="1:8" ht="37.799999999999997" customHeight="1">
+      <c r="A28" s="32">
+        <v>13</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="52.8" customHeight="1">
+      <c r="A29" s="32"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29" s="26"/>
+    </row>
+    <row r="30" spans="1:8" ht="88.8" customHeight="1">
+      <c r="A30" s="6">
+        <v>14</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="37.200000000000003" customHeight="1">
+      <c r="A31" s="32">
+        <v>15</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="49.2" customHeight="1">
+      <c r="A32" s="32"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H32" s="26"/>
+    </row>
+    <row r="33" spans="1:8" ht="36.6" customHeight="1">
+      <c r="A33" s="10">
+        <v>16</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="H33" s="29" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="29.4" customHeight="1">
+      <c r="A34" s="10"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H34" s="30"/>
+    </row>
+    <row r="35" spans="1:8" ht="26.4">
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="H35" s="31"/>
+    </row>
+    <row r="36" spans="1:8" ht="26.4">
+      <c r="A36" s="32">
+        <v>17</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="H36" s="24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="32"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="H37" s="25"/>
+    </row>
+    <row r="38" spans="1:8" ht="43.2" customHeight="1">
+      <c r="A38" s="32"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H38" s="26"/>
+    </row>
+    <row r="39" spans="1:8" ht="26.4">
+      <c r="A39" s="10">
+        <v>18</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="H39" s="29" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="26.4" customHeight="1">
+      <c r="A40" s="10"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H40" s="30"/>
+    </row>
+    <row r="41" spans="1:8" ht="26.4">
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="G41" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="H41" s="31"/>
+    </row>
+    <row r="42" spans="1:8" ht="26.4">
+      <c r="A42" s="32">
+        <v>19</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G42" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="H42" s="24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="27" customHeight="1">
+      <c r="A43" s="32"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="G43" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="H43" s="25"/>
+    </row>
+    <row r="44" spans="1:8" ht="26.4">
+      <c r="A44" s="32"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H44" s="26"/>
+    </row>
+    <row r="45" spans="1:8" ht="26.4">
+      <c r="A45" s="10">
+        <v>20</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="H45" s="29" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="28.8" customHeight="1">
+      <c r="A46" s="10"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H46" s="30"/>
+    </row>
+    <row r="47" spans="1:8" ht="26.4">
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="G47" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="H47" s="31"/>
+    </row>
+    <row r="48" spans="1:8" ht="26.4">
+      <c r="A48" s="32">
+        <v>21</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F48" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G48" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="H48" s="24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="31.2" customHeight="1">
+      <c r="A49" s="32"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G49" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="H49" s="25"/>
+    </row>
+    <row r="50" spans="1:8" ht="26.4">
+      <c r="A50" s="32"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="G50" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H50" s="26"/>
+    </row>
+    <row r="51" spans="1:8" ht="26.4">
+      <c r="A51" s="10">
+        <v>22</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="H51" s="29" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="26.4" customHeight="1">
+      <c r="A52" s="10"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H52" s="30"/>
+    </row>
+    <row r="53" spans="1:8" ht="26.4">
+      <c r="A53" s="13"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="G53" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="H53" s="31"/>
+    </row>
+    <row r="54" spans="1:8" ht="26.4">
+      <c r="A54" s="32">
+        <v>23</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F54" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G54" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="H54" s="24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="32"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G55" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="H55" s="25"/>
+    </row>
+    <row r="56" spans="1:8" ht="45.6" customHeight="1">
+      <c r="A56" s="32"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="G56" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H56" s="26"/>
+    </row>
+    <row r="57" spans="1:8" ht="26.4">
+      <c r="A57" s="10">
+        <v>24</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="H57" s="29" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="25.8" customHeight="1">
+      <c r="A58" s="10"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H58" s="30"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="13"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="G59" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H59" s="30"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="13"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="G60" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="H60" s="31"/>
+    </row>
+    <row r="61" spans="1:8" ht="46.8" customHeight="1">
+      <c r="A61" s="32">
+        <v>25</v>
+      </c>
+      <c r="B61" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F61" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G61" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H61" s="24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="59.4" customHeight="1">
+      <c r="A62" s="32"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="G62" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H62" s="26"/>
+    </row>
+    <row r="63" spans="1:8" ht="38.4" customHeight="1">
+      <c r="A63" s="10">
+        <v>26</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H63" s="29" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="42.6" customHeight="1">
+      <c r="A64" s="13"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H64" s="31"/>
+    </row>
+    <row r="65" spans="1:8" ht="36" customHeight="1">
+      <c r="A65" s="32">
+        <v>27</v>
+      </c>
+      <c r="B65" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C65" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F65" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G65" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H65" s="24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="38.4" customHeight="1">
+      <c r="A66" s="32"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="G66" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="H66" s="25"/>
+    </row>
+    <row r="67" spans="1:8" ht="26.4">
+      <c r="A67" s="32"/>
+      <c r="B67" s="32"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="G67" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="H67" s="26"/>
+    </row>
+    <row r="68" spans="1:8" ht="26.4">
+      <c r="A68" s="10">
+        <v>28</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H68" s="29" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="26.4">
+      <c r="A69" s="13"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H69" s="30"/>
+    </row>
+    <row r="70" spans="1:8" ht="46.2" customHeight="1">
+      <c r="A70" s="13"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G70" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="H70" s="31"/>
+    </row>
+    <row r="71" spans="1:8" ht="26.4">
+      <c r="A71" s="32">
+        <v>29</v>
+      </c>
+      <c r="B71" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C71" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F71" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G71" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H71" s="24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="26.4">
+      <c r="A72" s="32"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="G72" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="H72" s="25"/>
+    </row>
+    <row r="73" spans="1:8" ht="26.4">
+      <c r="A73" s="32"/>
+      <c r="B73" s="32"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="G73" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="H73" s="26"/>
+    </row>
+    <row r="74" spans="1:8" ht="26.4">
+      <c r="A74" s="10">
+        <v>30</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H74" s="29" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="26.4">
+      <c r="A75" s="13"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H75" s="30"/>
+    </row>
+    <row r="76" spans="1:8" ht="26.4">
+      <c r="A76" s="13"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="G76" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="H76" s="31"/>
+    </row>
+    <row r="77" spans="1:8" ht="26.4">
+      <c r="A77" s="32">
+        <v>31</v>
+      </c>
+      <c r="B77" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C77" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F77" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G77" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H77" s="24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="26.4">
+      <c r="A78" s="32"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="G78" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="H78" s="25"/>
+    </row>
+    <row r="79" spans="1:8" ht="26.4">
+      <c r="A79" s="32"/>
+      <c r="B79" s="32"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="32"/>
+      <c r="E79" s="32"/>
+      <c r="F79" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="G79" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="H79" s="26"/>
+    </row>
+    <row r="80" spans="1:8" ht="26.4">
+      <c r="A80" s="10">
+        <v>32</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H80" s="29" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="13"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G81" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="H81" s="30"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="13"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="G82" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H82" s="30"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="13"/>
+      <c r="B83" s="13"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="G83" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="H83" s="30"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="13"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G84" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="H84" s="30"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="13"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="G85" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="H85" s="30"/>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="13"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="G86" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="H86" s="30"/>
+    </row>
+    <row r="87" spans="1:8" ht="26.4">
+      <c r="A87" s="13"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="G87" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="H87" s="31"/>
+    </row>
+    <row r="88" spans="1:8" ht="26.4">
+      <c r="A88" s="32">
+        <v>33</v>
+      </c>
+      <c r="B88" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C88" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F88" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G88" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H88" s="24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="32"/>
+      <c r="B89" s="23"/>
+      <c r="C89" s="23"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="G89" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="H89" s="25"/>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="32"/>
+      <c r="B90" s="32"/>
+      <c r="C90" s="32"/>
+      <c r="D90" s="32"/>
+      <c r="E90" s="32"/>
+      <c r="F90" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="G90" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="H90" s="25"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="32"/>
+      <c r="B91" s="32"/>
+      <c r="C91" s="32"/>
+      <c r="D91" s="32"/>
+      <c r="E91" s="32"/>
+      <c r="F91" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="G91" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="H91" s="25"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="32"/>
+      <c r="B92" s="32"/>
+      <c r="C92" s="32"/>
+      <c r="D92" s="32"/>
+      <c r="E92" s="32"/>
+      <c r="F92" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="G92" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H92" s="25"/>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="32"/>
+      <c r="B93" s="32"/>
+      <c r="C93" s="32"/>
+      <c r="D93" s="32"/>
+      <c r="E93" s="32"/>
+      <c r="F93" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="G93" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H93" s="25"/>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="32"/>
+      <c r="B94" s="32"/>
+      <c r="C94" s="32"/>
+      <c r="D94" s="32"/>
+      <c r="E94" s="32"/>
+      <c r="F94" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="G94" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="H94" s="25"/>
+    </row>
+    <row r="95" spans="1:8" ht="26.4">
+      <c r="A95" s="32"/>
+      <c r="B95" s="32"/>
+      <c r="C95" s="32"/>
+      <c r="D95" s="32"/>
+      <c r="E95" s="32"/>
+      <c r="F95" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="G95" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="H95" s="26"/>
+    </row>
+    <row r="96" spans="1:8" ht="26.4">
+      <c r="A96" s="10">
+        <v>34</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G96" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H96" s="29" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="13"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="G97" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="H97" s="30"/>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="13"/>
+      <c r="B98" s="13"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="G98" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H98" s="30"/>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="13"/>
+      <c r="B99" s="13"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="13"/>
+      <c r="F99" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="G99" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="H99" s="30"/>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="13"/>
+      <c r="B100" s="13"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G100" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="H100" s="30"/>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="13"/>
+      <c r="B101" s="13"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="13"/>
+      <c r="F101" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="G101" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="H101" s="30"/>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="13"/>
+      <c r="B102" s="13"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="13"/>
+      <c r="E102" s="13"/>
+      <c r="F102" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="G102" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="H102" s="30"/>
+    </row>
+    <row r="103" spans="1:8" ht="26.4">
+      <c r="A103" s="13"/>
+      <c r="B103" s="13"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="13"/>
+      <c r="E103" s="13"/>
+      <c r="F103" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="G103" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="H103" s="31"/>
+    </row>
+    <row r="104" spans="1:8" ht="26.4">
+      <c r="A104" s="32">
+        <v>35</v>
+      </c>
+      <c r="B104" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C104" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E104" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F104" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G104" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H104" s="24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="32"/>
+      <c r="B105" s="23"/>
+      <c r="C105" s="23"/>
+      <c r="D105" s="23"/>
+      <c r="E105" s="23"/>
+      <c r="F105" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="G105" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="H105" s="25"/>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="32"/>
+      <c r="B106" s="32"/>
+      <c r="C106" s="32"/>
+      <c r="D106" s="32"/>
+      <c r="E106" s="32"/>
+      <c r="F106" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="G106" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="H106" s="25"/>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="32"/>
+      <c r="B107" s="32"/>
+      <c r="C107" s="32"/>
+      <c r="D107" s="32"/>
+      <c r="E107" s="32"/>
+      <c r="F107" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="G107" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="H107" s="25"/>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="32"/>
+      <c r="B108" s="32"/>
+      <c r="C108" s="32"/>
+      <c r="D108" s="32"/>
+      <c r="E108" s="32"/>
+      <c r="F108" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="G108" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="H108" s="25"/>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="32"/>
+      <c r="B109" s="32"/>
+      <c r="C109" s="32"/>
+      <c r="D109" s="32"/>
+      <c r="E109" s="32"/>
+      <c r="F109" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="G109" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H109" s="25"/>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="32"/>
+      <c r="B110" s="32"/>
+      <c r="C110" s="32"/>
+      <c r="D110" s="32"/>
+      <c r="E110" s="32"/>
+      <c r="F110" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="G110" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="H110" s="25"/>
+    </row>
+    <row r="111" spans="1:8" ht="26.4">
+      <c r="A111" s="32"/>
+      <c r="B111" s="32"/>
+      <c r="C111" s="32"/>
+      <c r="D111" s="32"/>
+      <c r="E111" s="32"/>
+      <c r="F111" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="G111" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="H111" s="26"/>
+    </row>
+    <row r="112" spans="1:8" ht="26.4">
+      <c r="A112" s="10">
+        <v>36</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E112" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G112" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H112" s="29" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="13"/>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G113" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="H113" s="30"/>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="13"/>
+      <c r="B114" s="13"/>
+      <c r="C114" s="13"/>
+      <c r="D114" s="13"/>
+      <c r="E114" s="13"/>
+      <c r="F114" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="G114" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H114" s="30"/>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="13"/>
+      <c r="B115" s="13"/>
+      <c r="C115" s="13"/>
+      <c r="D115" s="13"/>
+      <c r="E115" s="13"/>
+      <c r="F115" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="G115" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="H115" s="30"/>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="13"/>
+      <c r="B116" s="13"/>
+      <c r="C116" s="13"/>
+      <c r="D116" s="13"/>
+      <c r="E116" s="13"/>
+      <c r="F116" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G116" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="H116" s="30"/>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="13"/>
+      <c r="B117" s="13"/>
+      <c r="C117" s="13"/>
+      <c r="D117" s="13"/>
+      <c r="E117" s="13"/>
+      <c r="F117" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="G117" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="H117" s="30"/>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="13"/>
+      <c r="B118" s="13"/>
+      <c r="C118" s="13"/>
+      <c r="D118" s="13"/>
+      <c r="E118" s="13"/>
+      <c r="F118" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="G118" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="H118" s="30"/>
+    </row>
+    <row r="119" spans="1:8" ht="26.4">
+      <c r="A119" s="13"/>
+      <c r="B119" s="13"/>
+      <c r="C119" s="13"/>
+      <c r="D119" s="13"/>
+      <c r="E119" s="13"/>
+      <c r="F119" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="G119" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="H119" s="31"/>
+    </row>
+    <row r="120" spans="1:8" ht="26.4">
+      <c r="A120" s="32">
+        <v>37</v>
+      </c>
+      <c r="B120" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C120" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E120" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F120" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G120" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H120" s="24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="32"/>
+      <c r="B121" s="23"/>
+      <c r="C121" s="23"/>
+      <c r="D121" s="23"/>
+      <c r="E121" s="23"/>
+      <c r="F121" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="G121" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="H121" s="25"/>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="32"/>
+      <c r="B122" s="32"/>
+      <c r="C122" s="32"/>
+      <c r="D122" s="32"/>
+      <c r="E122" s="32"/>
+      <c r="F122" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="G122" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="H122" s="25"/>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="32"/>
+      <c r="B123" s="32"/>
+      <c r="C123" s="32"/>
+      <c r="D123" s="32"/>
+      <c r="E123" s="32"/>
+      <c r="F123" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="G123" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="H123" s="25"/>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="32"/>
+      <c r="B124" s="32"/>
+      <c r="C124" s="32"/>
+      <c r="D124" s="32"/>
+      <c r="E124" s="32"/>
+      <c r="F124" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="G124" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H124" s="25"/>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="32"/>
+      <c r="B125" s="32"/>
+      <c r="C125" s="32"/>
+      <c r="D125" s="32"/>
+      <c r="E125" s="32"/>
+      <c r="F125" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="G125" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H125" s="25"/>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="32"/>
+      <c r="B126" s="32"/>
+      <c r="C126" s="32"/>
+      <c r="D126" s="32"/>
+      <c r="E126" s="32"/>
+      <c r="F126" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="G126" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="H126" s="25"/>
+    </row>
+    <row r="127" spans="1:8" ht="26.4">
+      <c r="A127" s="32"/>
+      <c r="B127" s="32"/>
+      <c r="C127" s="32"/>
+      <c r="D127" s="32"/>
+      <c r="E127" s="32"/>
+      <c r="F127" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="G127" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="H127" s="26"/>
+    </row>
+    <row r="128" spans="1:8" ht="26.4">
+      <c r="A128" s="10">
+        <v>38</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E128" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G128" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H128" s="29" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="13"/>
+      <c r="B129" s="14"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G129" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="H129" s="30"/>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="13"/>
+      <c r="B130" s="13"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="13"/>
+      <c r="E130" s="13"/>
+      <c r="F130" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G130" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="H130" s="30"/>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="13"/>
+      <c r="B131" s="13"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="13"/>
+      <c r="E131" s="13"/>
+      <c r="F131" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="G131" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="H131" s="30"/>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="13"/>
+      <c r="B132" s="13"/>
+      <c r="C132" s="13"/>
+      <c r="D132" s="13"/>
+      <c r="E132" s="13"/>
+      <c r="F132" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="G132" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="H132" s="30"/>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="13"/>
+      <c r="B133" s="13"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="13"/>
+      <c r="E133" s="13"/>
+      <c r="F133" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="G133" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H133" s="30"/>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="13"/>
+      <c r="B134" s="13"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="13"/>
+      <c r="E134" s="13"/>
+      <c r="F134" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="G134" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="H134" s="30"/>
+    </row>
+    <row r="135" spans="1:8" ht="26.4">
+      <c r="A135" s="13"/>
+      <c r="B135" s="13"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="13"/>
+      <c r="E135" s="13"/>
+      <c r="F135" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="G135" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="H135" s="31"/>
+    </row>
+    <row r="136" spans="1:8" ht="26.4">
+      <c r="A136" s="32">
+        <v>39</v>
+      </c>
+      <c r="B136" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C136" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E136" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F136" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G136" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H136" s="24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="32"/>
+      <c r="B137" s="23"/>
+      <c r="C137" s="23"/>
+      <c r="D137" s="23"/>
+      <c r="E137" s="23"/>
+      <c r="F137" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="G137" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="H137" s="25"/>
+    </row>
+    <row r="138" spans="1:8" ht="26.4">
+      <c r="A138" s="32"/>
+      <c r="B138" s="32"/>
+      <c r="C138" s="32"/>
+      <c r="D138" s="32"/>
+      <c r="E138" s="32"/>
+      <c r="F138" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="G138" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="H138" s="25"/>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="32"/>
+      <c r="B139" s="32"/>
+      <c r="C139" s="32"/>
+      <c r="D139" s="32"/>
+      <c r="E139" s="32"/>
+      <c r="F139" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="G139" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="H139" s="25"/>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="32"/>
+      <c r="B140" s="32"/>
+      <c r="C140" s="32"/>
+      <c r="D140" s="32"/>
+      <c r="E140" s="32"/>
+      <c r="F140" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="G140" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H140" s="25"/>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" s="32"/>
+      <c r="B141" s="32"/>
+      <c r="C141" s="32"/>
+      <c r="D141" s="32"/>
+      <c r="E141" s="32"/>
+      <c r="F141" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="G141" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H141" s="25"/>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" s="32"/>
+      <c r="B142" s="32"/>
+      <c r="C142" s="32"/>
+      <c r="D142" s="32"/>
+      <c r="E142" s="32"/>
+      <c r="F142" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="G142" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="H142" s="25"/>
+    </row>
+    <row r="143" spans="1:8" ht="39.6">
+      <c r="A143" s="32"/>
+      <c r="B143" s="32"/>
+      <c r="C143" s="32"/>
+      <c r="D143" s="32"/>
+      <c r="E143" s="32"/>
+      <c r="F143" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="G143" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="H143" s="26"/>
+    </row>
+    <row r="144" spans="1:8" ht="26.4">
+      <c r="A144" s="10">
+        <v>40</v>
+      </c>
+      <c r="B144" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C144" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D144" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E144" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G144" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H144" s="29" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" s="13"/>
+      <c r="B145" s="14"/>
+      <c r="C145" s="14"/>
+      <c r="D145" s="14"/>
+      <c r="E145" s="14"/>
+      <c r="F145" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G145" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="H145" s="30"/>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" s="13"/>
+      <c r="B146" s="13"/>
+      <c r="C146" s="13"/>
+      <c r="D146" s="13"/>
+      <c r="E146" s="13"/>
+      <c r="F146" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G146" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="H146" s="30"/>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" s="13"/>
+      <c r="B147" s="13"/>
+      <c r="C147" s="13"/>
+      <c r="D147" s="13"/>
+      <c r="E147" s="13"/>
+      <c r="F147" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="G147" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="H147" s="30"/>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" s="13"/>
+      <c r="B148" s="13"/>
+      <c r="C148" s="13"/>
+      <c r="D148" s="13"/>
+      <c r="E148" s="13"/>
+      <c r="F148" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G148" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="H148" s="31"/>
+    </row>
+    <row r="149" spans="1:8" ht="26.4">
+      <c r="A149" s="32">
+        <v>41</v>
+      </c>
+      <c r="B149" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C149" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D149" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E149" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F149" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G149" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H149" s="24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" s="32"/>
+      <c r="B150" s="23"/>
+      <c r="C150" s="23"/>
+      <c r="D150" s="23"/>
+      <c r="E150" s="23"/>
+      <c r="F150" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="G150" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="H150" s="25"/>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" s="32"/>
+      <c r="B151" s="32"/>
+      <c r="C151" s="32"/>
+      <c r="D151" s="32"/>
+      <c r="E151" s="32"/>
+      <c r="F151" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="G151" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="H151" s="25"/>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" s="32"/>
+      <c r="B152" s="32"/>
+      <c r="C152" s="32"/>
+      <c r="D152" s="32"/>
+      <c r="E152" s="32"/>
+      <c r="F152" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="G152" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="H152" s="25"/>
+    </row>
+    <row r="153" spans="1:8" ht="34.200000000000003" customHeight="1">
+      <c r="A153" s="32"/>
+      <c r="B153" s="32"/>
+      <c r="C153" s="32"/>
+      <c r="D153" s="32"/>
+      <c r="E153" s="32"/>
+      <c r="F153" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="G153" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H153" s="25"/>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" s="32"/>
+      <c r="B154" s="32"/>
+      <c r="C154" s="32"/>
+      <c r="D154" s="32"/>
+      <c r="E154" s="32"/>
+      <c r="F154" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="G154" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H154" s="25"/>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" s="32"/>
+      <c r="B155" s="32"/>
+      <c r="C155" s="32"/>
+      <c r="D155" s="32"/>
+      <c r="E155" s="32"/>
+      <c r="F155" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="G155" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="H155" s="25"/>
+    </row>
+    <row r="156" spans="1:8" ht="26.4">
+      <c r="A156" s="32"/>
+      <c r="B156" s="32"/>
+      <c r="C156" s="32"/>
+      <c r="D156" s="32"/>
+      <c r="E156" s="32"/>
+      <c r="F156" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="G156" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="H156" s="26"/>
+    </row>
+    <row r="157" spans="1:8" ht="26.4">
+      <c r="A157" s="10">
+        <v>42</v>
+      </c>
+      <c r="B157" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C157" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D157" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E157" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G157" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H157" s="29" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" s="13"/>
+      <c r="B158" s="14"/>
+      <c r="C158" s="14"/>
+      <c r="D158" s="14"/>
+      <c r="E158" s="14"/>
+      <c r="F158" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G158" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="H158" s="30"/>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" s="13"/>
+      <c r="B159" s="13"/>
+      <c r="C159" s="13"/>
+      <c r="D159" s="13"/>
+      <c r="E159" s="13"/>
+      <c r="F159" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G159" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="H159" s="30"/>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" s="13"/>
+      <c r="B160" s="13"/>
+      <c r="C160" s="13"/>
+      <c r="D160" s="13"/>
+      <c r="E160" s="13"/>
+      <c r="F160" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="G160" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="H160" s="30"/>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" s="13"/>
+      <c r="B161" s="13"/>
+      <c r="C161" s="13"/>
+      <c r="D161" s="13"/>
+      <c r="E161" s="13"/>
+      <c r="F161" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="G161" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="H161" s="30"/>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" s="13"/>
+      <c r="B162" s="13"/>
+      <c r="C162" s="13"/>
+      <c r="D162" s="13"/>
+      <c r="E162" s="13"/>
+      <c r="F162" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="G162" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="H162" s="30"/>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" s="13"/>
+      <c r="B163" s="13"/>
+      <c r="C163" s="13"/>
+      <c r="D163" s="13"/>
+      <c r="E163" s="13"/>
+      <c r="F163" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="G163" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="H163" s="30"/>
+    </row>
+    <row r="164" spans="1:8" ht="39.6">
+      <c r="A164" s="13"/>
+      <c r="B164" s="13"/>
+      <c r="C164" s="13"/>
+      <c r="D164" s="13"/>
+      <c r="E164" s="13"/>
+      <c r="F164" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="G164" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="H164" s="31"/>
+    </row>
+    <row r="165" spans="1:8" ht="26.4">
+      <c r="A165" s="32">
+        <v>43</v>
+      </c>
+      <c r="B165" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C165" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D165" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E165" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F165" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G165" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H165" s="24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" s="32"/>
+      <c r="B166" s="23"/>
+      <c r="C166" s="23"/>
+      <c r="D166" s="23"/>
+      <c r="E166" s="23"/>
+      <c r="F166" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="G166" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="H166" s="25"/>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" s="32"/>
+      <c r="B167" s="32"/>
+      <c r="C167" s="32"/>
+      <c r="D167" s="32"/>
+      <c r="E167" s="32"/>
+      <c r="F167" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="G167" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="H167" s="25"/>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" s="32"/>
+      <c r="B168" s="32"/>
+      <c r="C168" s="32"/>
+      <c r="D168" s="32"/>
+      <c r="E168" s="32"/>
+      <c r="F168" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="G168" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="H168" s="25"/>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" s="32"/>
+      <c r="B169" s="32"/>
+      <c r="C169" s="32"/>
+      <c r="D169" s="32"/>
+      <c r="E169" s="32"/>
+      <c r="F169" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="G169" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H169" s="25"/>
+    </row>
+    <row r="170" spans="1:8" ht="26.4">
+      <c r="A170" s="32"/>
+      <c r="B170" s="32"/>
+      <c r="C170" s="32"/>
+      <c r="D170" s="32"/>
+      <c r="E170" s="32"/>
+      <c r="F170" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="G170" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="H170" s="26"/>
+    </row>
+    <row r="171" spans="1:8" ht="26.4" customHeight="1">
+      <c r="A171" s="10">
+        <v>44</v>
+      </c>
+      <c r="B171" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C171" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D171" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E171" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G171" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H171" s="29" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="26.4">
+      <c r="A172" s="13"/>
+      <c r="B172" s="11"/>
+      <c r="C172" s="14"/>
+      <c r="D172" s="14"/>
+      <c r="E172" s="14"/>
+      <c r="F172" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="G172" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="H172" s="30"/>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" s="13"/>
+      <c r="B173" s="11"/>
+      <c r="C173" s="13"/>
+      <c r="D173" s="13"/>
+      <c r="E173" s="13"/>
+      <c r="F173" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="G173" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="H173" s="30"/>
+    </row>
+    <row r="174" spans="1:8" ht="26.4">
+      <c r="A174" s="13"/>
+      <c r="B174" s="11"/>
+      <c r="C174" s="13"/>
+      <c r="D174" s="13"/>
+      <c r="E174" s="13"/>
+      <c r="F174" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="G174" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="H174" s="31"/>
+    </row>
+    <row r="175" spans="1:8" ht="26.4">
+      <c r="A175" s="32">
+        <v>45</v>
+      </c>
+      <c r="B175" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C175" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D175" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E175" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F175" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G175" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H175" s="24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" ht="26.4">
+      <c r="A176" s="32"/>
+      <c r="B176" s="23"/>
+      <c r="C176" s="23"/>
+      <c r="D176" s="23"/>
+      <c r="E176" s="23"/>
+      <c r="F176" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="G176" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="H176" s="25"/>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177" s="32"/>
+      <c r="B177" s="32"/>
+      <c r="C177" s="32"/>
+      <c r="D177" s="32"/>
+      <c r="E177" s="32"/>
+      <c r="F177" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="G177" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="H177" s="25"/>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" s="32"/>
+      <c r="B178" s="32"/>
+      <c r="C178" s="32"/>
+      <c r="D178" s="32"/>
+      <c r="E178" s="32"/>
+      <c r="F178" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="G178" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="H178" s="25"/>
+    </row>
+    <row r="179" spans="1:8" ht="26.4">
+      <c r="A179" s="32"/>
+      <c r="B179" s="32"/>
+      <c r="C179" s="32"/>
+      <c r="D179" s="32"/>
+      <c r="E179" s="32"/>
+      <c r="F179" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="G179" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="H179" s="26"/>
+    </row>
+    <row r="180" spans="1:8" ht="26.4">
+      <c r="A180" s="10">
+        <v>46</v>
+      </c>
+      <c r="B180" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C180" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D180" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E180" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F180" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G180" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H180" s="29" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" ht="26.4">
+      <c r="A181" s="13"/>
+      <c r="B181" s="14"/>
+      <c r="C181" s="14"/>
+      <c r="D181" s="14"/>
+      <c r="E181" s="14"/>
+      <c r="F181" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="G181" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="H181" s="30"/>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182" s="13"/>
+      <c r="B182" s="13"/>
+      <c r="C182" s="13"/>
+      <c r="D182" s="13"/>
+      <c r="E182" s="13"/>
+      <c r="F182" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="G182" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="H182" s="30"/>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="A183" s="13"/>
+      <c r="B183" s="13"/>
+      <c r="C183" s="13"/>
+      <c r="D183" s="13"/>
+      <c r="E183" s="13"/>
+      <c r="F183" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="G183" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="H183" s="30"/>
+    </row>
+    <row r="184" spans="1:8" ht="26.4">
+      <c r="A184" s="13"/>
+      <c r="B184" s="13"/>
+      <c r="C184" s="13"/>
+      <c r="D184" s="13"/>
+      <c r="E184" s="13"/>
+      <c r="F184" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G184" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="H184" s="31"/>
+    </row>
+    <row r="185" spans="1:8" ht="26.4">
+      <c r="A185" s="32">
+        <v>47</v>
+      </c>
+      <c r="B185" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="C185" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D185" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E185" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F185" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G185" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H185" s="24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" ht="26.4">
+      <c r="A186" s="32"/>
+      <c r="B186" s="23"/>
+      <c r="C186" s="23"/>
+      <c r="D186" s="23"/>
+      <c r="E186" s="23"/>
+      <c r="F186" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="G186" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="H186" s="25"/>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187" s="32"/>
+      <c r="B187" s="32"/>
+      <c r="C187" s="32"/>
+      <c r="D187" s="32"/>
+      <c r="E187" s="32"/>
+      <c r="F187" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="G187" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="H187" s="25"/>
+    </row>
+    <row r="188" spans="1:8" ht="26.4">
+      <c r="A188" s="32"/>
+      <c r="B188" s="32"/>
+      <c r="C188" s="32"/>
+      <c r="D188" s="32"/>
+      <c r="E188" s="32"/>
+      <c r="F188" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="G188" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="H188" s="26"/>
+    </row>
+    <row r="189" spans="1:8" ht="26.4">
+      <c r="A189" s="10">
+        <v>48</v>
+      </c>
+      <c r="B189" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C189" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D189" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E189" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F189" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G189" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H189" s="29" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" ht="26.4">
+      <c r="A190" s="13"/>
+      <c r="B190" s="14"/>
+      <c r="C190" s="14"/>
+      <c r="D190" s="14"/>
+      <c r="E190" s="14"/>
+      <c r="F190" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="G190" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="H190" s="30"/>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="A191" s="13"/>
+      <c r="B191" s="13"/>
+      <c r="C191" s="13"/>
+      <c r="D191" s="13"/>
+      <c r="E191" s="13"/>
+      <c r="F191" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="G191" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="H191" s="30"/>
+    </row>
+    <row r="192" spans="1:8" ht="26.4">
+      <c r="A192" s="13"/>
+      <c r="B192" s="13"/>
+      <c r="C192" s="13"/>
+      <c r="D192" s="13"/>
+      <c r="E192" s="13"/>
+      <c r="F192" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="G192" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="H192" s="31"/>
+    </row>
+    <row r="196" spans="6:6">
+      <c r="F196" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="264">
+    <mergeCell ref="H149:H156"/>
+    <mergeCell ref="H157:H164"/>
+    <mergeCell ref="H165:H170"/>
+    <mergeCell ref="H171:H174"/>
+    <mergeCell ref="H175:H179"/>
+    <mergeCell ref="H180:H184"/>
+    <mergeCell ref="H185:H188"/>
+    <mergeCell ref="H189:H192"/>
+    <mergeCell ref="H80:H87"/>
+    <mergeCell ref="H88:H95"/>
+    <mergeCell ref="H96:H103"/>
+    <mergeCell ref="H104:H111"/>
+    <mergeCell ref="H112:H119"/>
+    <mergeCell ref="H120:H127"/>
+    <mergeCell ref="H128:H135"/>
+    <mergeCell ref="H136:H143"/>
+    <mergeCell ref="H144:H148"/>
+    <mergeCell ref="H54:H56"/>
+    <mergeCell ref="H57:H60"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="H65:H67"/>
+    <mergeCell ref="H68:H70"/>
+    <mergeCell ref="H71:H73"/>
+    <mergeCell ref="H74:H76"/>
+    <mergeCell ref="H77:H79"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H33:H35"/>
+    <mergeCell ref="H36:H38"/>
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="H51:H53"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="A144:A148"/>
+    <mergeCell ref="B144:B148"/>
+    <mergeCell ref="C144:C148"/>
+    <mergeCell ref="D144:D148"/>
+    <mergeCell ref="E144:E148"/>
+    <mergeCell ref="A149:A156"/>
+    <mergeCell ref="B149:B156"/>
+    <mergeCell ref="C149:C156"/>
+    <mergeCell ref="D149:D156"/>
+    <mergeCell ref="E149:E156"/>
+    <mergeCell ref="A128:A135"/>
+    <mergeCell ref="B128:B135"/>
+    <mergeCell ref="C128:C135"/>
+    <mergeCell ref="D128:D135"/>
+    <mergeCell ref="E128:E135"/>
+    <mergeCell ref="A136:A143"/>
+    <mergeCell ref="B136:B143"/>
+    <mergeCell ref="C136:C143"/>
+    <mergeCell ref="D136:D143"/>
+    <mergeCell ref="E136:E143"/>
+    <mergeCell ref="A112:A119"/>
+    <mergeCell ref="B112:B119"/>
+    <mergeCell ref="C112:C119"/>
+    <mergeCell ref="D112:D119"/>
+    <mergeCell ref="E112:E119"/>
+    <mergeCell ref="A120:A127"/>
+    <mergeCell ref="B120:B127"/>
+    <mergeCell ref="C120:C127"/>
+    <mergeCell ref="D120:D127"/>
+    <mergeCell ref="E120:E127"/>
+    <mergeCell ref="A96:A103"/>
+    <mergeCell ref="B96:B103"/>
+    <mergeCell ref="C96:C103"/>
+    <mergeCell ref="D96:D103"/>
+    <mergeCell ref="E96:E103"/>
+    <mergeCell ref="A104:A111"/>
+    <mergeCell ref="B104:B111"/>
+    <mergeCell ref="C104:C111"/>
+    <mergeCell ref="D104:D111"/>
+    <mergeCell ref="E104:E111"/>
+    <mergeCell ref="B80:B87"/>
+    <mergeCell ref="A88:A95"/>
+    <mergeCell ref="B88:B95"/>
+    <mergeCell ref="C88:C95"/>
+    <mergeCell ref="D88:D95"/>
+    <mergeCell ref="E88:E95"/>
+    <mergeCell ref="E80:E87"/>
+    <mergeCell ref="D80:D87"/>
+    <mergeCell ref="C80:C87"/>
+    <mergeCell ref="A80:A87"/>
+    <mergeCell ref="A74:A76"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="D74:D76"/>
+    <mergeCell ref="E74:E76"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="D77:D79"/>
+    <mergeCell ref="E77:E79"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="E68:E70"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="D71:D73"/>
+    <mergeCell ref="E71:E73"/>
+    <mergeCell ref="E65:E67"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="E57:E60"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A157:A164"/>
+    <mergeCell ref="B157:B164"/>
+    <mergeCell ref="C157:C164"/>
+    <mergeCell ref="D157:D164"/>
+    <mergeCell ref="E157:E164"/>
+    <mergeCell ref="A165:A170"/>
+    <mergeCell ref="B165:B170"/>
+    <mergeCell ref="C165:C170"/>
+    <mergeCell ref="D165:D170"/>
+    <mergeCell ref="E165:E170"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A171:A174"/>
+    <mergeCell ref="B171:B174"/>
+    <mergeCell ref="C171:C174"/>
+    <mergeCell ref="D171:D174"/>
+    <mergeCell ref="E171:E174"/>
+    <mergeCell ref="A175:A179"/>
+    <mergeCell ref="B175:B179"/>
+    <mergeCell ref="C175:C179"/>
+    <mergeCell ref="D175:D179"/>
+    <mergeCell ref="E175:E179"/>
+    <mergeCell ref="A189:A192"/>
+    <mergeCell ref="B189:B192"/>
+    <mergeCell ref="C189:C192"/>
+    <mergeCell ref="D189:D192"/>
+    <mergeCell ref="E189:E192"/>
+    <mergeCell ref="A180:A184"/>
+    <mergeCell ref="B180:B184"/>
+    <mergeCell ref="C180:C184"/>
+    <mergeCell ref="D180:D184"/>
+    <mergeCell ref="E180:E184"/>
+    <mergeCell ref="A185:A188"/>
+    <mergeCell ref="B185:B188"/>
+    <mergeCell ref="C185:C188"/>
+    <mergeCell ref="D185:D188"/>
+    <mergeCell ref="E185:E188"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
@@ -362,7 +5611,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -375,7 +5624,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
